--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,132 +40,153 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>pool</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>tried</t>
+    <t>missing</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>never</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
@@ -175,21 +196,18 @@
     <t>use</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>like</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -199,12 +217,15 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -220,16 +241,13 @@
     <t>loved</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>friends</t>
   </si>
   <si>
     <t>game</t>
@@ -599,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K3">
-        <v>0.6923076923076923</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9223300970873787</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C4">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K4">
-        <v>0.6103896103896104</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9210526315789473</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,16 +807,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K5">
-        <v>0.53125</v>
+        <v>0.546875</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9154929577464789</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>0.5268817204301075</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8978494623655914</v>
+        <v>0.9174757281553398</v>
       </c>
       <c r="C7">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D7">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>0.453125</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8913043478260869</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>0.4149377593360996</v>
+        <v>0.46875</v>
       </c>
       <c r="L8">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>282</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8857142857142857</v>
+        <v>0.8763440860215054</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>0.3859397417503587</v>
+        <v>0.4149377593360996</v>
       </c>
       <c r="L9">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="M9">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>428</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8631578947368421</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.363914373088685</v>
+        <v>0.3663793103448276</v>
       </c>
       <c r="L10">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="M10">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>208</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8225806451612904</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K11">
-        <v>0.3012048192771085</v>
+        <v>0.345565749235474</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>116</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7734375</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.3004926108374384</v>
+        <v>0.3119341563786008</v>
       </c>
       <c r="L12">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="M12">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="N12">
         <v>0.99</v>
@@ -1160,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>852</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.2284122562674095</v>
+        <v>0.2395543175487465</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>0.1904761904761905</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L14">
         <v>36</v>
@@ -1260,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7037037037037037</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,31 +1304,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>0.1681818181818182</v>
+        <v>0.1664499349804942</v>
       </c>
       <c r="L15">
+        <v>256</v>
+      </c>
+      <c r="M15">
         <v>259</v>
       </c>
-      <c r="M15">
-        <v>260</v>
-      </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6984126984126984</v>
+        <v>0.7578125</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>0.1319261213720317</v>
+        <v>0.151009657594381</v>
       </c>
       <c r="L16">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="M16">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>987</v>
+        <v>967</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6885245901639344</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,31 +1404,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K17">
-        <v>0.06149732620320856</v>
+        <v>0.04704301075268817</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6296296296296297</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6113744075829384</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C19">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5818181818181818</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1496,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1514,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1522,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5542168674698795</v>
+        <v>0.625</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1540,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1548,13 +1566,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.524390243902439</v>
+        <v>0.6161137440758294</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1566,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1574,13 +1592,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5178571428571429</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1600,13 +1618,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5154639175257731</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1618,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1626,13 +1644,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4927536231884058</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1644,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1652,13 +1670,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4851485148514851</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C27">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1670,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1678,13 +1696,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="C28">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1696,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1704,13 +1722,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.472463768115942</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C29">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1722,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>182</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1730,13 +1748,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4303797468354431</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="C30">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D30">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1748,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1756,7 +1774,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3956043956043956</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C31">
         <v>36</v>
@@ -1774,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1782,25 +1800,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3361344537815126</v>
+        <v>0.4317460317460318</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>79</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1808,13 +1826,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2923976608187134</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1826,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1834,13 +1852,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.29</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1852,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>142</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1860,13 +1878,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.286231884057971</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C35">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1878,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>197</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1886,13 +1904,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.25</v>
+        <v>0.2974683544303797</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1904,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>96</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1912,13 +1930,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2373417721518987</v>
+        <v>0.275</v>
       </c>
       <c r="C37">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1930,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>241</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1938,13 +1956,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2349726775956284</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="C38">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1956,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1964,13 +1982,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1982378854625551</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C39">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1982,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>364</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1990,13 +2008,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1938775510204082</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2008,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>158</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2016,13 +2034,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1910828025477707</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2034,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2042,25 +2060,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1901931649331352</v>
+        <v>0.234375</v>
       </c>
       <c r="C42">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>545</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2068,13 +2086,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1657142857142857</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2086,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2094,25 +2112,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1550632911392405</v>
+        <v>0.2070484581497797</v>
       </c>
       <c r="C44">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>267</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2120,13 +2138,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1495327102803738</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2138,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2146,25 +2164,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1136712749615975</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C46">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E46">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>577</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2172,25 +2190,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09340659340659341</v>
+        <v>0.1901931649331352</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F47">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>330</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2198,25 +2216,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0903954802259887</v>
+        <v>0.1887755102040816</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>322</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2224,13 +2242,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.08620689655172414</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2242,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>318</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2250,25 +2268,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08215962441314555</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E50">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>391</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2276,25 +2294,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.07888631090487239</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E51">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>397</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2302,13 +2320,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.06095551894563427</v>
+        <v>0.136150234741784</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E52">
         <v>0.03</v>
@@ -2320,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>570</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2328,25 +2346,181 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0432020330368488</v>
+        <v>0.1257668711656442</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E53">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="F53">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>753</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1208791208791209</v>
+      </c>
+      <c r="C54">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>0.02</v>
+      </c>
+      <c r="F54">
+        <v>0.98</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1085450346420323</v>
+      </c>
+      <c r="C55">
+        <v>47</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>0.02</v>
+      </c>
+      <c r="F55">
+        <v>0.98</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.08498583569405099</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>32</v>
+      </c>
+      <c r="E56">
+        <v>0.06</v>
+      </c>
+      <c r="F56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.08112582781456953</v>
+      </c>
+      <c r="C57">
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>53</v>
+      </c>
+      <c r="E57">
+        <v>0.08</v>
+      </c>
+      <c r="F57">
+        <v>0.92</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>0.09</v>
+      </c>
+      <c r="F58">
+        <v>0.91</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.03816793893129771</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>38</v>
+      </c>
+      <c r="E59">
+        <v>0.21</v>
+      </c>
+      <c r="F59">
+        <v>0.79</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
